--- a/C#/rpg/PRG_GAME.xlsx
+++ b/C#/rpg/PRG_GAME.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\プライベート\エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\尾上太一\Documents\C#\work\syalpon.github.io-sampl\C#\rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9180DECF-4062-47C8-8A26-FF90E0806ABB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43859331-5BBC-4AA7-8A40-4F5E9728450C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="90" windowWidth="14295" windowHeight="14760" activeTab="2" xr2:uid="{839B11FF-F5A5-4D73-8DEF-A119E90D0F0A}"/>
+    <workbookView xWindow="-10245" yWindow="-405" windowWidth="20520" windowHeight="14760" activeTab="1" xr2:uid="{839B11FF-F5A5-4D73-8DEF-A119E90D0F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Game" sheetId="3" r:id="rId1"/>
-    <sheet name="クラス図" sheetId="2" r:id="rId2"/>
-    <sheet name="コンソール画面" sheetId="4" r:id="rId3"/>
+    <sheet name="クラス図" sheetId="5" r:id="rId2"/>
+    <sheet name="クラス図old" sheetId="2" r:id="rId3"/>
+    <sheet name="コンソール画面" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>EXPが閾値を超えたらLvをインクリメントする
 またその時HPのステータスを更新する</t>
@@ -534,6 +535,107 @@
     <t>＞</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2～5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2…5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1以上</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1…n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0以上</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0…n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1個</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味</t>
+    <rPh sb="0" eb="2">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表記</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実現</t>
+    <rPh sb="0" eb="2">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>依存</t>
+    <rPh sb="0" eb="2">
+      <t>イゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポジション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集約</t>
+    <rPh sb="0" eb="2">
+      <t>シュウヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汎化</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -579,7 +681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,8 +694,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -616,11 +730,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -643,10 +954,63 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -665,6 +1029,1157 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>212835</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23977</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41056</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB59E342-4CB8-4C1A-B054-DED2DC567306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="689085" y="4327306"/>
+          <a:ext cx="525517" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14781</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>62405</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9197</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1498DB-2495-4025-A91A-5FD37FF56568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="729156" y="2866697"/>
+          <a:ext cx="523874" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CB56E0-A6E4-4C4A-BF76-98C7080A719F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="240196" y="240196"/>
+          <a:ext cx="1441174" cy="1921565"/>
+          <a:chOff x="4048125" y="1190626"/>
+          <a:chExt cx="3333750" cy="3809999"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB236EEC-DE71-4568-8C59-C167B643A28C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1190626"/>
+            <a:ext cx="3333750" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>class</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D85E00C-155F-4A84-A2E4-0BF3E6329F9C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1666877"/>
+            <a:ext cx="3333750" cy="1640416"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>ｰ 変数名 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t># </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>変数名 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>変数名 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAAE862A-820B-40D3-B54F-09B82D808770}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="3307292"/>
+            <a:ext cx="3333750" cy="1693333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ｰ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>関数名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>) : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>#  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>関数名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>) : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>関数名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>) : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>186599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>223344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39413</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60681</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C552666-C719-4E84-906E-41A5FC2B7C45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="666990" y="3842844"/>
+          <a:ext cx="573401" cy="77533"/>
+          <a:chOff x="751120" y="3394103"/>
+          <a:chExt cx="562262" cy="73819"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3128DE7-31E2-43EE-B4FF-299483576A22}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="792792" y="3429821"/>
+            <a:ext cx="520590" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="ひし形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B549723B-8E5A-40A4-97E0-5AA59DCF4DAE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="751120" y="3394103"/>
+            <a:ext cx="88106" cy="73819"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177364</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>197068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>43928</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C136CD1D-9914-47B2-8B5B-0955EEDAD3C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="657755" y="3336177"/>
+          <a:ext cx="590847" cy="87055"/>
+          <a:chOff x="650330" y="3034861"/>
+          <a:chExt cx="579708" cy="83343"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FD2C7E-4527-45AD-BFE3-52AA4DAADFAA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="709448" y="3074276"/>
+            <a:ext cx="520590" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="二等辺三角形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49777C8-0ED3-4BB4-B0C8-A3DA614FDEB7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="646758" y="3038433"/>
+            <a:ext cx="83343" cy="76200"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>164224</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>236482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>236482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A12ABDB-1821-4264-B1AD-E5CC53F14074}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="640474" y="4760857"/>
+          <a:ext cx="550152" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="0">
+                <a:schemeClr val="tx1"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="10800000" scaled="0"/>
+          </a:gradFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137948</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>229914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8208</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76774</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4681BF6-8B95-4FAA-BC4C-35EC2E30A40D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="618339" y="5290588"/>
+          <a:ext cx="590847" cy="87056"/>
+          <a:chOff x="650330" y="3034861"/>
+          <a:chExt cx="579708" cy="83343"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86299B9-58D9-46D9-B455-13789E408C5F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="709448" y="3074276"/>
+            <a:ext cx="520590" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:prstDash val="dash"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="二等辺三角形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C9D05C-9894-4416-9C62-807A0024D3EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="646758" y="3038433"/>
+            <a:ext cx="83343" cy="76200"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -692,8 +2207,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="800100" y="6410325"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="820511" y="6587218"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="3400425" y="4095750"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -975,8 +2490,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2857500" y="2381250"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="2939143" y="2449286"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="3571875" y="2381250"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -1138,8 +2653,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="952500" y="2381250"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="979714" y="2449286"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="1905000" y="2381250"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -1773,8 +3288,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7858125" y="4048125"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="8082643" y="4163786"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="1905000" y="2381250"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -1962,8 +3477,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9525000" y="4048125"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="9797143" y="4163786"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="1905000" y="2381250"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -2298,8 +3813,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7858125" y="5953125"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="8082643" y="6123214"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="1905000" y="2381250"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -3081,8 +4596,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9525000" y="5953125"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="9797143" y="6123214"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="9525000" y="5953125"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -3224,8 +4739,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11191875" y="5953125"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="11511643" y="6123214"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="11191875" y="5953125"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -3424,8 +4939,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12858750" y="5953125"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="13226143" y="6123214"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="12858750" y="5953125"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -3732,8 +5247,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="476250" y="4524375"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="489857" y="4653643"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="1905000" y="2381250"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -3957,8 +5472,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1905000" y="4524375"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="1959429" y="4653643"/>
+          <a:ext cx="1224642" cy="1224643"/>
           <a:chOff x="1905000" y="2381250"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -4126,8 +5641,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3333750" y="4524375"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="3429000" y="4653643"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="1905000" y="2381250"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -4295,8 +5810,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4762500" y="4524375"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="4898571" y="4653643"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="1905000" y="2381250"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -5248,8 +6763,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15716250" y="4048125"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="16165286" y="4163786"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="1905000" y="2381250"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -5494,8 +7009,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15716250" y="5953125"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="16165286" y="6123214"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="1905000" y="2381250"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -6071,8 +7586,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17383125" y="5953125"/>
-          <a:ext cx="1190626" cy="1190625"/>
+          <a:off x="17879786" y="6123214"/>
+          <a:ext cx="1224644" cy="1224643"/>
           <a:chOff x="9525000" y="5953125"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -6214,8 +7729,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19050001" y="5953125"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="19594287" y="6123214"/>
+          <a:ext cx="1224643" cy="1224643"/>
           <a:chOff x="11191875" y="5953125"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -6381,8 +7896,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20716876" y="5953125"/>
-          <a:ext cx="1190624" cy="1190625"/>
+          <a:off x="21308787" y="6123214"/>
+          <a:ext cx="1224642" cy="1224643"/>
           <a:chOff x="12858750" y="5953125"/>
           <a:chExt cx="1190625" cy="1190625"/>
         </a:xfrm>
@@ -7292,11 +8807,11 @@
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
@@ -7465,11 +8980,296 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E735FD65-1904-46FA-96BE-A6FB2671F155}">
+  <dimension ref="A10:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="8" width="3.125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:8" s="34" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" s="34" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12"/>
+      <c r="B12" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="12"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="12"/>
+      <c r="B16" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="12"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="12"/>
+      <c r="B18" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="12"/>
+      <c r="B22" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" s="34" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="12"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" s="34" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" s="34" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="12"/>
+      <c r="B25" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="12"/>
+      <c r="B26" s="21">
+        <v>1</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="12"/>
+      <c r="B27" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="12"/>
+      <c r="B29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" s="34" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="12"/>
+      <c r="B30" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AFEAF5-DD9F-4808-AFF6-DEF07A9C7F9E}">
   <dimension ref="V1:BK8"/>
   <sheetViews>
-    <sheetView topLeftCell="BG13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CG20" sqref="CG20"/>
+    <sheetView topLeftCell="AG1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CG21" sqref="CG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7492,11 +9292,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D44981-BA60-43C9-821C-23A7E7AE99D0}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -7692,25 +9492,25 @@
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B39" s="11"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B40" s="11"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B41" s="11"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B42" s="11"/>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B43" s="11"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B44" s="11"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>53</v>
       </c>
     </row>

--- a/C#/rpg/PRG_GAME.xlsx
+++ b/C#/rpg/PRG_GAME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\尾上太一\Documents\C#\work\syalpon.github.io-sampl\C#\rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43859331-5BBC-4AA7-8A40-4F5E9728450C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B806C41-44FC-4941-9682-7106DDAE75CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="-405" windowWidth="20520" windowHeight="14760" activeTab="1" xr2:uid="{839B11FF-F5A5-4D73-8DEF-A119E90D0F0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{839B11FF-F5A5-4D73-8DEF-A119E90D0F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Game" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>EXPが閾値を超えたらLvをインクリメントする
 またその時HPのステータスを更新する</t>
@@ -636,6 +636,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1163,8 +1167,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="240196" y="240196"/>
-          <a:ext cx="1441174" cy="1921565"/>
+          <a:off x="244929" y="244929"/>
+          <a:ext cx="1469571" cy="1959428"/>
           <a:chOff x="4048125" y="1190626"/>
           <a:chExt cx="3333750" cy="3809999"/>
         </a:xfrm>
@@ -1751,8 +1755,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="666990" y="3842844"/>
-          <a:ext cx="573401" cy="77533"/>
+          <a:off x="676456" y="3897273"/>
+          <a:ext cx="587600" cy="82265"/>
           <a:chOff x="751120" y="3394103"/>
           <a:chExt cx="562262" cy="73819"/>
         </a:xfrm>
@@ -1878,8 +1882,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="657755" y="3336177"/>
-          <a:ext cx="590847" cy="87055"/>
+          <a:off x="667221" y="3381139"/>
+          <a:ext cx="605046" cy="91789"/>
           <a:chOff x="650330" y="3034861"/>
           <a:chExt cx="579708" cy="83343"/>
         </a:xfrm>
@@ -2074,8 +2078,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="618339" y="5290588"/>
-          <a:ext cx="590847" cy="87056"/>
+          <a:off x="627805" y="5373414"/>
+          <a:ext cx="605046" cy="91789"/>
           <a:chOff x="650330" y="3034861"/>
           <a:chExt cx="579708" cy="83343"/>
         </a:xfrm>
@@ -2174,6 +2178,5086 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E67EE12-3378-43CB-BEE4-1734940EBF44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2449286" y="1731064"/>
+          <a:ext cx="2204357" cy="1208079"/>
+          <a:chOff x="4048125" y="1190626"/>
+          <a:chExt cx="3333750" cy="2381251"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2E85ED-2DB1-4B9F-871C-11B545E0BD3E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1190626"/>
+            <a:ext cx="3333750" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Brave</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE2E3C3-4D96-47C1-9447-B54CB508FC36}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1666877"/>
+            <a:ext cx="3333750" cy="952497"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>character : Character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EED9A9E-72FD-412F-8758-0DB6C8AB638E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="2619376"/>
+            <a:ext cx="3333750" cy="952501"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Brave()</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAD427A-3B61-4FD6-9057-654AC23DC6DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5143501" y="1731064"/>
+          <a:ext cx="2204356" cy="1208079"/>
+          <a:chOff x="4048125" y="1190626"/>
+          <a:chExt cx="3333750" cy="2381251"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC2EDD7-AD0A-492D-89C0-3080237E475D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1190626"/>
+            <a:ext cx="3333750" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Monster</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8664424E-0EFD-4D32-98FC-D4336E732F60}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1666877"/>
+            <a:ext cx="3333750" cy="952497"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>character : Character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927B5858-1BD8-4A2A-9BFC-BB74F1B3F5E8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="2619376"/>
+            <a:ext cx="3333750" cy="952501"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Monster()</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>240195</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>120099</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="コネクタ: カギ線 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354A206C-A092-4583-AA22-E36570732C2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="0"/>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4375289" y="-51768"/>
+          <a:ext cx="496956" cy="3002447"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 75126"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>240195</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>120098</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="コネクタ: カギ線 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3853C46B-7B5B-4EA0-9F66-DBD015F15EB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="0"/>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3054212" y="1269309"/>
+          <a:ext cx="496956" cy="360294"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>240195</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="グループ化 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57E9F85-F0E0-45D1-B59A-927B3708E5E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2444552" y="244929"/>
+          <a:ext cx="1474306" cy="979714"/>
+          <a:chOff x="2401956" y="240196"/>
+          <a:chExt cx="1441175" cy="960782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A471057-C6AF-48B1-A44B-E9E30D4849E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2401956" y="240196"/>
+            <a:ext cx="1441174" cy="240195"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>main</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DA838B-B643-4640-AA2B-28C7861E41C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2401956" y="720587"/>
+            <a:ext cx="1441174" cy="480391"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>- Main() : void</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="正方形/長方形 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C85E906-2DF0-43BE-B5E5-F4AC3CD74B33}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2401957" y="480392"/>
+            <a:ext cx="1441174" cy="240195"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9528</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="53" name="グループ化 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72634282-2B0C-4B42-9215-15D8D6026666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3673929"/>
+          <a:ext cx="2939143" cy="1968956"/>
+          <a:chOff x="4048125" y="1190626"/>
+          <a:chExt cx="3333750" cy="3810003"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="正方形/長方形 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39C66F8-A624-4CDF-A3AD-DFBDE11B0665}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1190626"/>
+            <a:ext cx="3333750" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Character</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="正方形/長方形 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783479E5-AB7B-49E4-A0B6-65E031E183B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1666877"/>
+            <a:ext cx="3333750" cy="476251"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="正方形/長方形 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F637141-8DF7-46A0-B673-9CA11AC084EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="2143129"/>
+            <a:ext cx="3333750" cy="2857500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Character()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> Character(string )</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ Atk(Character) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ IsDead(Character) : bool</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ Die() : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="57" name="グループ化 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03E0126-C159-4834-99F7-B3B0C9209A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7592786" y="3673928"/>
+          <a:ext cx="2939142" cy="2694215"/>
+          <a:chOff x="4048125" y="1190626"/>
+          <a:chExt cx="3333750" cy="5272398"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="正方形/長方形 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C739F6D7-DABA-4DCE-8F23-D3E8F96D144F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1190626"/>
+            <a:ext cx="3333750" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Status</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="正方形/長方形 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B37D401-CACB-4A12-A4F8-66AFF8432761}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1666875"/>
+            <a:ext cx="3333750" cy="2890346"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ name : string</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ hp : HP</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ atc : ATC</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t> exp : EXP</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ lv : LV</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="正方形/長方形 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8629B332-5E3B-4973-BB82-6C164DFCB58E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="4540799"/>
+            <a:ext cx="3333750" cy="1922225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Status()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ Status(string)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ Show() : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>232926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="グループ化 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CE612F-22DC-4B97-9FF4-0627352FC713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6858000" y="7335855"/>
+          <a:ext cx="1714499" cy="1971431"/>
+          <a:chOff x="4048125" y="1190626"/>
+          <a:chExt cx="3333750" cy="3806785"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="正方形/長方形 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8612EDF2-7E53-4099-8D81-2926C7A852CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1190626"/>
+            <a:ext cx="3333750" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>HP</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="正方形/長方形 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F463E4-E38F-42C7-AEBC-FDD851817026}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1666878"/>
+            <a:ext cx="3333750" cy="475447"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="正方形/長方形 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E001C0-FB0C-4E97-8E37-E286D9B6A4C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="2142324"/>
+            <a:ext cx="3333750" cy="2855087"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>HP()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ HP(int)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ HP(int ,int)</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ HP(int ,int ,int)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t># Below_now(int) : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>235401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="グループ化 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1A666C-6D5C-4060-9381-8AD098248BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9062357" y="7338330"/>
+          <a:ext cx="1714501" cy="1968956"/>
+          <a:chOff x="4048125" y="1190626"/>
+          <a:chExt cx="3333750" cy="3806785"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="正方形/長方形 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BAF802-1F8D-4690-AEB7-EACFE17D484A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1190626"/>
+            <a:ext cx="3333750" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>ATC</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="正方形/長方形 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59DA77C1-2E7E-4F8F-88EE-E58873990D3F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1666878"/>
+            <a:ext cx="3333750" cy="475447"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="正方形/長方形 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089F0D6D-7F93-4365-BEB6-E0A337324A69}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="2142324"/>
+            <a:ext cx="3333750" cy="2855087"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ATC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ATC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(int)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ATC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(int ,int)</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ATC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(int ,int ,int)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>237877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="69" name="グループ化 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427E827A-3DE7-48AC-B739-01D62280D243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11266714" y="7340806"/>
+          <a:ext cx="1714500" cy="1966480"/>
+          <a:chOff x="4048125" y="1190626"/>
+          <a:chExt cx="3333750" cy="3806785"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="正方形/長方形 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749AB601-FCEC-4473-9CEF-3D7A1D606559}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1190626"/>
+            <a:ext cx="3333750" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>EXP</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="正方形/長方形 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DDD86A6-E9EF-4600-891F-8E23C566404F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1666878"/>
+            <a:ext cx="3333750" cy="475447"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="正方形/長方形 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577251A2-807C-4C0A-AF9E-630BDFE97B39}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="2142324"/>
+            <a:ext cx="3333750" cy="2855087"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>EXP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>EXP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(int)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>EXP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(int ,int)</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>EXP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(int ,int ,int)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t># Exceed_now(int): int</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>232770</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="73" name="グループ化 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB18E834-ECE7-4AE9-8351-283EDCF001DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13471071" y="7347857"/>
+          <a:ext cx="1702342" cy="1968955"/>
+          <a:chOff x="4048125" y="1190626"/>
+          <a:chExt cx="3333750" cy="3806785"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="正方形/長方形 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DE7C61-3074-4A25-BEA8-0B6F58B5B899}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1190626"/>
+            <a:ext cx="3333750" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>LV</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="正方形/長方形 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856D8436-7E0B-4BDE-BAA2-A9DDA2FCC53F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1666878"/>
+            <a:ext cx="3333750" cy="475447"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="正方形/長方形 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA82826-DE26-4EE9-B54B-D9F981A5BDD3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="2142324"/>
+            <a:ext cx="3333750" cy="2855087"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>LV</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>LV</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(int)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>LV</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(int ,int)</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>LV</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(int ,int ,int)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>LevelUp(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>int) : void</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="グループ化 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C44B24D-1FA2-4AE4-8BBE-B6169DBCEF7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2939143" y="10287000"/>
+          <a:ext cx="5388428" cy="5422048"/>
+          <a:chOff x="4048125" y="1190626"/>
+          <a:chExt cx="3333750" cy="10544791"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="正方形/長方形 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5E90B2-6B95-4029-837A-B35EC058D0FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1190626"/>
+            <a:ext cx="3333750" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Param</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="正方形/長方形 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED315D01-CD37-4745-8A88-8DB994F01317}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="1666876"/>
+            <a:ext cx="3333750" cy="3837529"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ rc : Character</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t> _max : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>- _now : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>- _min : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:prstClr val="black"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:prstClr val="black"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>max : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:prstClr val="black"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:prstClr val="black"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> now : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:prstClr val="black"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:prstClr val="black"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>min : int </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="正方形/長方形 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6FEF1E-6DFE-4D95-9D62-FC1545485D3E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="5504403"/>
+            <a:ext cx="3333750" cy="6231014"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Param()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ Param(int)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ Param(int ,int)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ Param(int ,int ,int)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ Show() : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ Show(string) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ Show(string ,string) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ Reference(ref Character) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Update_max() : int</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Exceed_now() : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Below_now() : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Update_min() : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>117662</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>232927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="コネクタ: カギ線 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0829CFA-58E8-4A79-803E-15C976A02ACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="0"/>
+          <a:endCxn id="60" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7590382" y="5996751"/>
+          <a:ext cx="938897" cy="1294279"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="diamond" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>117663</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>235401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="コネクタ: カギ線 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F14209-D9E2-4E13-AE77-7F3FBC04DC6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="0"/>
+          <a:endCxn id="60" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8648101" y="6233310"/>
+          <a:ext cx="941372" cy="823634"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="diamond" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>117662</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>237877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="コネクタ: カギ線 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945675A2-9462-4025-A485-BEFF944AB0FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="0"/>
+          <a:endCxn id="60" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9705819" y="5175592"/>
+          <a:ext cx="943848" cy="2941545"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="diamond" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>116385</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="コネクタ: カギ線 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D665D093-BBF6-4F98-93A3-ADC8340A0498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="0"/>
+          <a:endCxn id="60" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="10759810" y="4121601"/>
+          <a:ext cx="952500" cy="5058180"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="diamond" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="99" name="グループ化 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5720ABD-B7C8-4D92-8AAD-6BAC480B1FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="6377666" y="4589689"/>
+          <a:ext cx="1198790" cy="111579"/>
+          <a:chOff x="650330" y="3034861"/>
+          <a:chExt cx="579708" cy="83343"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="100" name="直線矢印コネクタ 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F428D267-34A2-49D2-8DE0-5C047B2C3A55}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="709448" y="3074276"/>
+            <a:ext cx="520590" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="二等辺三角形 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260B39C1-8F34-43B3-9FE4-360D9FF5FB1D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="646758" y="3038433"/>
+            <a:ext cx="83343" cy="76200"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>172232</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>131831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>35073</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98171</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="109" name="グループ化 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24805C70-10B6-492E-9727-7B8A94D3277D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="18306714">
+          <a:off x="6733554" y="9735795"/>
+          <a:ext cx="1190983" cy="107769"/>
+          <a:chOff x="650330" y="3034861"/>
+          <a:chExt cx="579708" cy="83343"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EC588F-68B4-43E1-8598-21CDDAA8BA43}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="709448" y="3074276"/>
+            <a:ext cx="520590" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="二等辺三角形 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F8B1BF-78EE-4D3B-A96D-7D0EE1BCE5F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="646758" y="3038433"/>
+            <a:ext cx="83343" cy="76200"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>115395</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>200079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>152957</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>53060</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="112" name="グループ化 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A936EFCF-3216-4296-9A83-A189ED294054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="20072086">
+          <a:off x="7218324" y="9752293"/>
+          <a:ext cx="2241919" cy="97910"/>
+          <a:chOff x="650330" y="3034861"/>
+          <a:chExt cx="579708" cy="83343"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="113" name="直線矢印コネクタ 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE83A23-63BC-4CD4-A227-7B85CBAA056C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="709448" y="3074276"/>
+            <a:ext cx="520590" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="二等辺三角形 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B6F310-71EA-4087-B842-7C4885F30BC5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="646758" y="3038433"/>
+            <a:ext cx="83343" cy="76200"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>11964</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>81756</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29365</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="115" name="グループ化 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A6344D-7057-4159-9157-BF0D6A74DD24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="20567631">
+          <a:off x="7849678" y="9709144"/>
+          <a:ext cx="3498792" cy="117364"/>
+          <a:chOff x="650330" y="3034861"/>
+          <a:chExt cx="579708" cy="83343"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325A80EB-9AE0-4D59-A18D-15ACCFA7A863}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="709448" y="3074276"/>
+            <a:ext cx="520590" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="二等辺三角形 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EEADC8B-87A7-4E4A-A780-0AA6F905DD71}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="646758" y="3038433"/>
+            <a:ext cx="83343" cy="76200"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>229538</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>205243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>70544</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63703</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="118" name="グループ化 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6307FA80-1B75-4449-B5E8-DAF43451EB1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="20941797">
+          <a:off x="8312181" y="9757457"/>
+          <a:ext cx="5229434" cy="103389"/>
+          <a:chOff x="650330" y="3034861"/>
+          <a:chExt cx="579708" cy="83343"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="119" name="直線矢印コネクタ 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04833A1E-6D51-46C4-B4DF-20BAB1CF5CBB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="709448" y="3074276"/>
+            <a:ext cx="520590" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="120" name="二等辺三角形 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C66FF3E-313B-4208-A70A-86F0B096BEDB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="646758" y="3038433"/>
+            <a:ext cx="83343" cy="76200"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{113663A7-46D1-4B09-96BA-23A4B0743AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="0"/>
+          <a:endCxn id="56" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4706471" y="5455587"/>
+          <a:ext cx="705970" cy="4495237"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="0">
+                <a:schemeClr val="tx1"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="10800000" scaled="0"/>
+          </a:gradFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="コネクタ: カギ線 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF89CA1-7175-4B92-B3DB-0E87077296DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="0"/>
+          <a:endCxn id="32" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5204732" y="2632983"/>
+          <a:ext cx="734786" cy="1347107"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="diamond" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="コネクタ: カギ線 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C1C458-1074-4BD3-8FA1-5896605CACA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="0"/>
+          <a:endCxn id="28" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3857626" y="2632982"/>
+          <a:ext cx="734786" cy="1347107"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="diamond" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8981,11 +14065,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E735FD65-1904-46FA-96BE-A6FB2671F155}">
-  <dimension ref="A10:H30"/>
+  <dimension ref="A1:BR30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="topRight" activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8993,7 +14077,15 @@
     <col min="1" max="8" width="3.125" style="12"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:8" s="34" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.4">
+      <c r="BB1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" s="34" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -9003,7 +14095,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" s="34" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:70" s="34" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12"/>
       <c r="B11" s="33" t="s">
         <v>83</v>
@@ -9015,7 +14107,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:70" s="34" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12"/>
       <c r="B12" s="30" t="s">
         <v>82</v>
@@ -9027,7 +14119,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:70" s="34" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12"/>
       <c r="B13" s="30"/>
       <c r="C13" s="29"/>
@@ -9037,7 +14129,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:70" s="34" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12"/>
       <c r="B14" s="30" t="s">
         <v>81</v>
@@ -9049,7 +14141,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:70" s="34" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12"/>
       <c r="B15" s="30"/>
       <c r="C15" s="29"/>
@@ -9059,7 +14151,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:70" s="34" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12"/>
       <c r="B16" s="30" t="s">
         <v>80</v>
@@ -9269,7 +14361,7 @@
   <dimension ref="V1:BK8"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CG21" sqref="CG21"/>
+      <selection activeCell="BY36" sqref="BY36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/C#/rpg/PRG_GAME.xlsx
+++ b/C#/rpg/PRG_GAME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\尾上太一\Documents\C#\work\syalpon.github.io-sampl\C#\rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B806C41-44FC-4941-9682-7106DDAE75CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96C3A86-E8FB-4A76-8E3C-CB9B7D85A987}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{839B11FF-F5A5-4D73-8DEF-A119E90D0F0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{839B11FF-F5A5-4D73-8DEF-A119E90D0F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Game" sheetId="3" r:id="rId1"/>
@@ -13862,7 +13862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17E2A47-FC34-469B-BFE9-BC358CCF1EBB}">
   <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -14067,9 +14067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E735FD65-1904-46FA-96BE-A6FB2671F155}">
   <dimension ref="A1:BR30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI6" sqref="AI6"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14360,8 +14360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AFEAF5-DD9F-4808-AFF6-DEF07A9C7F9E}">
   <dimension ref="V1:BK8"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BY36" sqref="BY36"/>
+    <sheetView topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BI1" sqref="BI1:CP41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14389,7 +14389,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
